--- a/resource/Paphyrus/관리자/7. 관리자_고시가설정.xlsx
+++ b/resource/Paphyrus/관리자/7. 관리자_고시가설정.xlsx
@@ -1003,11 +1003,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R1083"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K722" sqref="K722"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1073,7 +1074,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
@@ -1115,7 +1116,7 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>145</v>
       </c>
@@ -1158,7 +1159,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
@@ -1198,7 +1199,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>145</v>
       </c>
@@ -1241,7 +1242,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>145</v>
       </c>
@@ -1281,7 +1282,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>145</v>
       </c>
@@ -1324,7 +1325,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>145</v>
       </c>
@@ -1407,7 +1408,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
@@ -1447,7 +1448,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>145</v>
       </c>
@@ -1490,7 +1491,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>145</v>
       </c>
@@ -1530,7 +1531,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>145</v>
       </c>
@@ -1573,7 +1574,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>145</v>
       </c>
@@ -1613,7 +1614,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -1656,7 +1657,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>145</v>
       </c>
@@ -1696,7 +1697,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>145</v>
       </c>
@@ -1739,7 +1740,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -1779,7 +1780,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>145</v>
       </c>
@@ -1822,7 +1823,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>145</v>
       </c>
@@ -1862,7 +1863,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>145</v>
       </c>
@@ -1905,7 +1906,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>145</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="Q22" s="12"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>145</v>
       </c>
@@ -1988,7 +1989,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>145</v>
       </c>
@@ -2028,7 +2029,7 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -2071,7 +2072,7 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>145</v>
       </c>
@@ -2111,7 +2112,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
@@ -2154,7 +2155,7 @@
       <c r="Q27" s="12"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -2194,7 +2195,7 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>145</v>
       </c>
@@ -2237,7 +2238,7 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -2277,7 +2278,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>145</v>
       </c>
@@ -2320,7 +2321,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>145</v>
       </c>
@@ -2360,7 +2361,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>145</v>
       </c>
@@ -3897,7 +3898,7 @@
       <c r="Q69" s="12"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -3937,7 +3938,7 @@
       <c r="Q70" s="12"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -3980,7 +3981,7 @@
       <c r="Q71" s="12"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -4020,7 +4021,7 @@
       <c r="Q72" s="12"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -4063,7 +4064,7 @@
       <c r="Q73" s="12"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="Q74" s="12"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>145</v>
       </c>
@@ -4146,7 +4147,7 @@
       <c r="Q75" s="12"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -4186,7 +4187,7 @@
       <c r="Q76" s="12"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>145</v>
       </c>
@@ -4395,7 +4396,7 @@
       <c r="Q81" s="12"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>145</v>
       </c>
@@ -4435,7 +4436,7 @@
       <c r="Q82" s="12"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>145</v>
       </c>
@@ -4478,7 +4479,7 @@
       <c r="Q83" s="12"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>145</v>
       </c>
@@ -4518,7 +4519,7 @@
       <c r="Q84" s="12"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>145</v>
       </c>
@@ -4561,7 +4562,7 @@
       <c r="Q85" s="12"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>145</v>
       </c>
@@ -4601,7 +4602,7 @@
       <c r="Q86" s="12"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>145</v>
       </c>
@@ -4644,7 +4645,7 @@
       <c r="Q87" s="12"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>145</v>
       </c>
@@ -4684,7 +4685,7 @@
       <c r="Q88" s="12"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>145</v>
       </c>
@@ -4727,7 +4728,7 @@
       <c r="Q89" s="12"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>145</v>
       </c>
@@ -4767,7 +4768,7 @@
       <c r="Q90" s="12"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>145</v>
       </c>
@@ -4810,7 +4811,7 @@
       <c r="Q91" s="12"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>145</v>
       </c>
@@ -4850,7 +4851,7 @@
       <c r="Q92" s="12"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>145</v>
       </c>
@@ -4893,7 +4894,7 @@
       <c r="Q93" s="12"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -4933,7 +4934,7 @@
       <c r="Q94" s="12"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>145</v>
       </c>
@@ -4976,7 +4977,7 @@
       <c r="Q95" s="12"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>145</v>
       </c>
@@ -5016,7 +5017,7 @@
       <c r="Q96" s="12"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>145</v>
       </c>
@@ -5059,7 +5060,7 @@
       <c r="Q97" s="12"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>1</v>
       </c>
@@ -5205,7 +5206,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -5240,7 +5241,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>1</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>1</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>1</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>1</v>
       </c>
@@ -5497,7 +5498,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>1</v>
       </c>
@@ -5605,7 +5606,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -5678,7 +5679,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>1</v>
       </c>
@@ -5751,7 +5752,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -5789,7 +5790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>1</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>1</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>1</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>1</v>
       </c>
@@ -6043,7 +6044,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>1</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -6116,7 +6117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>1</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -6227,7 +6228,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>1</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>1</v>
       </c>
@@ -6335,7 +6336,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>1</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>1</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -6446,7 +6447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>1</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>1</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -6700,7 +6701,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>1</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>1</v>
       </c>
@@ -6773,7 +6774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>1</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>1</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>1</v>
       </c>
@@ -6919,7 +6920,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -6957,7 +6958,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>1</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -7030,7 +7031,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
@@ -7065,7 +7066,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>1</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>1</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>1</v>
       </c>
@@ -7176,7 +7177,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>1</v>
       </c>
@@ -7211,7 +7212,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -7249,7 +7250,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>1</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>1</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>1</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>1</v>
       </c>
@@ -7468,7 +7469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>1</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>1</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>1</v>
       </c>
@@ -7614,7 +7615,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>1</v>
       </c>
@@ -7649,7 +7650,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>1</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>1</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>1</v>
       </c>
@@ -7760,7 +7761,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>1</v>
       </c>
@@ -7795,7 +7796,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>1</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>1</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>1</v>
       </c>
@@ -7906,7 +7907,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>1</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>1</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>1</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>1</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>1</v>
       </c>
@@ -8125,7 +8126,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>1</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>1</v>
       </c>
@@ -8198,7 +8199,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>1</v>
       </c>
@@ -8233,7 +8234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>1</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>1</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>1</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>1</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>1</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>1</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>1</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>1</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>1</v>
       </c>
@@ -8563,7 +8564,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>1</v>
       </c>
@@ -8598,7 +8599,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>1</v>
       </c>
@@ -8671,7 +8672,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>1</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>1</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>1</v>
       </c>
@@ -8782,7 +8783,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>1</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>1</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>1</v>
       </c>
@@ -8890,7 +8891,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>1</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>1</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>1</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>1</v>
       </c>
@@ -9036,7 +9037,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>1</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>1</v>
       </c>
@@ -9109,7 +9110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>1</v>
       </c>
@@ -9147,7 +9148,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -9182,7 +9183,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>1</v>
       </c>
@@ -9220,7 +9221,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>1</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>1</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>1</v>
       </c>
@@ -9328,7 +9329,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>1</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>1</v>
       </c>
@@ -9439,7 +9440,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>1</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>1</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>1</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>1</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
@@ -9658,7 +9659,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>1</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>1</v>
       </c>
@@ -9731,7 +9732,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>1</v>
       </c>
@@ -9766,7 +9767,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>1</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>1</v>
       </c>
@@ -9827,7 +9828,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>1</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>1</v>
       </c>
@@ -9876,7 +9877,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>1</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>1</v>
       </c>
@@ -9925,7 +9926,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>1</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>1</v>
       </c>
@@ -9974,7 +9975,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>1</v>
       </c>
@@ -10000,7 +10001,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -10023,7 +10024,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>1</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>1</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>1</v>
       </c>
@@ -10098,7 +10099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>1</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>1</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>1</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>1</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>1</v>
       </c>
@@ -10245,7 +10246,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>1</v>
       </c>
@@ -10268,7 +10269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>1</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>1</v>
       </c>
@@ -10317,7 +10318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>1</v>
       </c>
@@ -10343,7 +10344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>1</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>1</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>1</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>1</v>
       </c>
@@ -10480,7 +10481,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>1</v>
       </c>
@@ -10524,7 +10525,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>1</v>
       </c>
@@ -10571,7 +10572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>1</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>1</v>
       </c>
@@ -10665,7 +10666,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>1</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>1</v>
       </c>
@@ -10753,7 +10754,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>1</v>
       </c>
@@ -10797,7 +10798,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>1</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>1</v>
       </c>
@@ -10891,7 +10892,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>1</v>
       </c>
@@ -10938,7 +10939,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>1</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>1</v>
       </c>
@@ -11008,7 +11009,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>1</v>
       </c>
@@ -11043,7 +11044,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>1</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>1</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>1</v>
       </c>
@@ -11157,7 +11158,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>1</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>1</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>1</v>
       </c>
@@ -11265,7 +11266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>1</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>1</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>1</v>
       </c>
@@ -11352,7 +11353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>1</v>
       </c>
@@ -11375,7 +11376,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -11401,7 +11402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>1</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>1</v>
       </c>
@@ -11450,7 +11451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>1</v>
       </c>
@@ -11473,7 +11474,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>1</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>1</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>1</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>1</v>
       </c>
@@ -11571,7 +11572,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>1</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>1</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>1</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>1</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>1</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>1</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>1</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>1</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>1</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>1</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>1</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>1</v>
       </c>
@@ -11865,7 +11866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>1</v>
       </c>
@@ -11891,7 +11892,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>1</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>1</v>
       </c>
@@ -11940,7 +11941,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>1</v>
       </c>
@@ -11963,7 +11964,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>1</v>
       </c>
@@ -11989,7 +11990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>1</v>
       </c>
@@ -12012,7 +12013,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>1</v>
       </c>
@@ -12038,7 +12039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>1</v>
       </c>
@@ -12061,7 +12062,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>1</v>
       </c>
@@ -12087,7 +12088,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>1</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>1</v>
       </c>
@@ -12136,7 +12137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>1</v>
       </c>
@@ -12159,7 +12160,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>1</v>
       </c>
@@ -12185,7 +12186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>1</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>1</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>1</v>
       </c>
@@ -12257,7 +12258,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>1</v>
       </c>
@@ -12283,7 +12284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>1</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>1</v>
       </c>
@@ -12332,7 +12333,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>1</v>
       </c>
@@ -12355,7 +12356,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>1</v>
       </c>
@@ -12381,7 +12382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>1</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>1</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>1</v>
       </c>
@@ -12453,7 +12454,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>1</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>1</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>1</v>
       </c>
@@ -12528,7 +12529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>1</v>
       </c>
@@ -12551,7 +12552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>1</v>
       </c>
@@ -12577,7 +12578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>1</v>
       </c>
@@ -12600,7 +12601,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>1</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>1</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>1</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>1</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>1</v>
       </c>
@@ -12724,7 +12725,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>1</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>1</v>
       </c>
@@ -12773,7 +12774,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>1</v>
       </c>
@@ -12796,7 +12797,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>1</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>1</v>
       </c>
@@ -12845,7 +12846,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>1</v>
       </c>
@@ -12871,7 +12872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>1</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>1</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>1</v>
       </c>
@@ -12943,7 +12944,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>1</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>1</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>1</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>1</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>1</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>1</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>1</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>1</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>1</v>
       </c>
@@ -13165,7 +13166,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>1</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>1</v>
       </c>
@@ -13214,7 +13215,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>1</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>1</v>
       </c>
@@ -13263,7 +13264,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>1</v>
       </c>
@@ -13286,7 +13287,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>1</v>
       </c>
@@ -13312,7 +13313,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>1</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>1</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>1</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>1</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>1</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>1</v>
       </c>
@@ -13459,7 +13460,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>1</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>1</v>
       </c>
@@ -13508,7 +13509,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>1</v>
       </c>
@@ -13531,7 +13532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>1</v>
       </c>
@@ -13557,7 +13558,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>1</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>1</v>
       </c>
@@ -13606,7 +13607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>1</v>
       </c>
@@ -13629,7 +13630,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>1</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>1</v>
       </c>
@@ -13678,7 +13679,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>1</v>
       </c>
@@ -13704,7 +13705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>1</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>1</v>
       </c>
@@ -13753,7 +13754,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>1</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>1</v>
       </c>
@@ -13802,7 +13803,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>1</v>
       </c>
@@ -13825,7 +13826,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>1</v>
       </c>
@@ -13851,7 +13852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>1</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>1</v>
       </c>
@@ -13900,7 +13901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>1</v>
       </c>
@@ -13923,7 +13924,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>1</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>1</v>
       </c>
@@ -13972,7 +13973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>1</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>1</v>
       </c>
@@ -14021,7 +14022,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>1</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>1</v>
       </c>
@@ -14070,7 +14071,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>1</v>
       </c>
@@ -17048,7 +17049,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>1</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>1</v>
       </c>
@@ -17097,7 +17098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>1</v>
       </c>
@@ -17120,7 +17121,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>1</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>1</v>
       </c>
@@ -17169,7 +17170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>1</v>
       </c>
@@ -17218,7 +17219,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>1</v>
       </c>
@@ -17244,7 +17245,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>1</v>
       </c>
@@ -17267,7 +17268,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>1</v>
       </c>
@@ -17293,7 +17294,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>1</v>
       </c>
@@ -17316,7 +17317,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>1</v>
       </c>
@@ -17342,7 +17343,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>1</v>
       </c>
@@ -17365,7 +17366,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>1</v>
       </c>
@@ -17391,7 +17392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>1</v>
       </c>
@@ -17414,7 +17415,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>1</v>
       </c>
@@ -17440,7 +17441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>1</v>
       </c>
@@ -17463,7 +17464,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>1</v>
       </c>
@@ -17489,7 +17490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>1</v>
       </c>
@@ -17506,7 +17507,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>1</v>
       </c>
@@ -17526,7 +17527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>1</v>
       </c>
@@ -17543,7 +17544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>1</v>
       </c>
@@ -17563,7 +17564,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>1</v>
       </c>
@@ -17580,7 +17581,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>1</v>
       </c>
@@ -17600,7 +17601,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>1</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>1</v>
       </c>
@@ -17637,7 +17638,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>1</v>
       </c>
@@ -17654,7 +17655,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>1</v>
       </c>
@@ -17674,7 +17675,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>1</v>
       </c>
@@ -17691,7 +17692,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>1</v>
       </c>
@@ -17711,7 +17712,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>1</v>
       </c>
@@ -17728,7 +17729,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>1</v>
       </c>
@@ -17748,7 +17749,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>1</v>
       </c>
@@ -17765,7 +17766,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>1</v>
       </c>
@@ -17785,7 +17786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>1</v>
       </c>
@@ -17802,7 +17803,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>1</v>
       </c>
@@ -17822,7 +17823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>1</v>
       </c>
@@ -17839,7 +17840,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>1</v>
       </c>
@@ -17859,7 +17860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>1</v>
       </c>
@@ -17876,7 +17877,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>1</v>
       </c>
@@ -17896,7 +17897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>1</v>
       </c>
@@ -17913,7 +17914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>1</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>1</v>
       </c>
@@ -17950,7 +17951,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>1</v>
       </c>
@@ -17970,7 +17971,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>1</v>
       </c>
@@ -17987,7 +17988,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>1</v>
       </c>
@@ -18007,7 +18008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>1</v>
       </c>
@@ -18024,7 +18025,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>1</v>
       </c>
@@ -18044,7 +18045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>1</v>
       </c>
@@ -18061,7 +18062,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>1</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>1</v>
       </c>
@@ -18098,7 +18099,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>1</v>
       </c>
@@ -18118,7 +18119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>1</v>
       </c>
@@ -18135,7 +18136,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
         <v>1</v>
       </c>
@@ -18155,7 +18156,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>1</v>
       </c>
@@ -18172,7 +18173,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>1</v>
       </c>
@@ -18192,7 +18193,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>1</v>
       </c>
@@ -18209,7 +18210,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>1</v>
       </c>
@@ -18229,7 +18230,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" s="1" t="s">
         <v>1</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" s="1" t="s">
         <v>1</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1" t="s">
         <v>1</v>
       </c>
@@ -18301,7 +18302,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>1</v>
       </c>
@@ -18327,7 +18328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>1</v>
       </c>
@@ -18344,7 +18345,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" s="1" t="s">
         <v>1</v>
       </c>
@@ -18364,7 +18365,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>1</v>
       </c>
@@ -18381,7 +18382,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
@@ -18401,7 +18402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>1</v>
       </c>
@@ -18419,7 +18420,7 @@
       </c>
       <c r="G526" s="2"/>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>1</v>
       </c>
@@ -18440,7 +18441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>1</v>
       </c>
@@ -18458,7 +18459,7 @@
       </c>
       <c r="G528" s="2"/>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>1</v>
       </c>
@@ -18479,7 +18480,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>1</v>
       </c>
@@ -18497,7 +18498,7 @@
       </c>
       <c r="G530" s="2"/>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>1</v>
       </c>
@@ -18518,7 +18519,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>1</v>
       </c>
@@ -18536,7 +18537,7 @@
       </c>
       <c r="G532" s="2"/>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>1</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>1</v>
       </c>
@@ -18575,7 +18576,7 @@
       </c>
       <c r="G534" s="2"/>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>1</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>1</v>
       </c>
@@ -18614,7 +18615,7 @@
       </c>
       <c r="G536" s="2"/>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>1</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>1</v>
       </c>
@@ -18653,7 +18654,7 @@
       </c>
       <c r="G538" s="2"/>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>1</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>1</v>
       </c>
@@ -18692,7 +18693,7 @@
       </c>
       <c r="G540" s="2"/>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>1</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>1</v>
       </c>
@@ -18731,7 +18732,7 @@
       </c>
       <c r="G542" s="2"/>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>1</v>
       </c>
@@ -18752,7 +18753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>1</v>
       </c>
@@ -18770,7 +18771,7 @@
       </c>
       <c r="G544" s="2"/>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>1</v>
       </c>
@@ -18791,7 +18792,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>1</v>
       </c>
@@ -18808,7 +18809,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>1</v>
       </c>
@@ -18828,7 +18829,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>1</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>1</v>
       </c>
@@ -18865,7 +18866,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>1</v>
       </c>
@@ -18882,7 +18883,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>1</v>
       </c>
@@ -18902,7 +18903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>1</v>
       </c>
@@ -18919,7 +18920,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>1</v>
       </c>
@@ -18939,7 +18940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>1</v>
       </c>
@@ -18956,7 +18957,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>1</v>
       </c>
@@ -18976,7 +18977,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>1</v>
       </c>
@@ -18994,7 +18995,7 @@
       </c>
       <c r="G556" s="2"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>1</v>
       </c>
@@ -19015,7 +19016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>1</v>
       </c>
@@ -19033,7 +19034,7 @@
       </c>
       <c r="G558" s="2"/>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>1</v>
       </c>
@@ -19054,7 +19055,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>1</v>
       </c>
@@ -19072,7 +19073,7 @@
       </c>
       <c r="G560" s="2"/>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>1</v>
       </c>
@@ -19093,7 +19094,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>1</v>
       </c>
@@ -19111,7 +19112,7 @@
       </c>
       <c r="G562" s="2"/>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>1</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>1</v>
       </c>
@@ -19150,7 +19151,7 @@
       </c>
       <c r="G564" s="2"/>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>1</v>
       </c>
@@ -19171,7 +19172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>1</v>
       </c>
@@ -19189,7 +19190,7 @@
       </c>
       <c r="G566" s="2"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>1</v>
       </c>
@@ -19210,7 +19211,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>1</v>
       </c>
@@ -19228,7 +19229,7 @@
       </c>
       <c r="G568" s="2"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>1</v>
       </c>
@@ -19249,7 +19250,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>1</v>
       </c>
@@ -19267,7 +19268,7 @@
       </c>
       <c r="G570" s="2"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>1</v>
       </c>
@@ -19288,7 +19289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>1</v>
       </c>
@@ -19306,7 +19307,7 @@
       </c>
       <c r="G572" s="2"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>1</v>
       </c>
@@ -19327,7 +19328,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>1</v>
       </c>
@@ -19345,7 +19346,7 @@
       </c>
       <c r="G574" s="2"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>1</v>
       </c>
@@ -19366,7 +19367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>1</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="577" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>1</v>
       </c>
@@ -19403,7 +19404,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="578" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>1</v>
       </c>
@@ -19420,7 +19421,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="579" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>1</v>
       </c>
@@ -19440,7 +19441,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="580" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>1</v>
       </c>
@@ -19457,7 +19458,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="581" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>1</v>
       </c>
@@ -19477,7 +19478,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="582" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>1</v>
       </c>
@@ -19521,7 +19522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="583" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>1</v>
       </c>
@@ -19565,7 +19566,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="584" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" s="1" t="s">
         <v>1</v>
       </c>
@@ -19602,7 +19603,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="585" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>1</v>
       </c>
@@ -19649,7 +19650,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="586" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>1</v>
       </c>
@@ -19696,7 +19697,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="587" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>1</v>
       </c>
@@ -19736,7 +19737,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="588" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>1</v>
       </c>
@@ -19780,7 +19781,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="589" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>1</v>
       </c>
@@ -19824,7 +19825,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="590" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>1</v>
       </c>
@@ -19861,7 +19862,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="591" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>1</v>
       </c>
@@ -19908,7 +19909,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="592" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>1</v>
       </c>
@@ -19955,7 +19956,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="593" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>1</v>
       </c>
@@ -19995,7 +19996,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="594" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>1</v>
       </c>
@@ -20039,7 +20040,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="595" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1</v>
       </c>
@@ -20083,7 +20084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="596" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>1</v>
       </c>
@@ -20120,7 +20121,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="597" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>1</v>
       </c>
@@ -20167,7 +20168,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="598" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>1</v>
       </c>
@@ -20214,7 +20215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="599" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>1</v>
       </c>
@@ -20254,7 +20255,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="600" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>1</v>
       </c>
@@ -20298,7 +20299,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="601" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>1</v>
       </c>
@@ -20342,7 +20343,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="602" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>1</v>
       </c>
@@ -20379,7 +20380,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="603" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>1</v>
       </c>
@@ -20426,7 +20427,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="604" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>1</v>
       </c>
@@ -20473,7 +20474,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="605" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>1</v>
       </c>
@@ -20513,7 +20514,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="606" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>1</v>
       </c>
@@ -20557,7 +20558,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="607" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>1</v>
       </c>
@@ -20601,7 +20602,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="608" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
@@ -20638,7 +20639,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>1</v>
       </c>
@@ -20685,7 +20686,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>1</v>
       </c>
@@ -20732,7 +20733,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>1</v>
       </c>
@@ -20772,7 +20773,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>1</v>
       </c>
@@ -20816,7 +20817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>1</v>
       </c>
@@ -20860,7 +20861,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>1</v>
       </c>
@@ -20897,7 +20898,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>1</v>
       </c>
@@ -20944,7 +20945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>1</v>
       </c>
@@ -20991,7 +20992,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>1</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>1</v>
       </c>
@@ -21075,7 +21076,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>1</v>
       </c>
@@ -21119,7 +21120,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>1</v>
       </c>
@@ -21156,7 +21157,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>1</v>
       </c>
@@ -21203,7 +21204,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>1</v>
       </c>
@@ -21250,7 +21251,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>1</v>
       </c>
@@ -21290,7 +21291,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>1</v>
       </c>
@@ -21334,7 +21335,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="625" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>1</v>
       </c>
@@ -21378,7 +21379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="626" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>1</v>
       </c>
@@ -21415,7 +21416,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="627" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>1</v>
       </c>
@@ -21462,7 +21463,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="628" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>1</v>
       </c>
@@ -21509,7 +21510,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="629" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>1</v>
       </c>
@@ -21549,7 +21550,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="630" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>1</v>
       </c>
@@ -21594,7 +21595,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="631" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>1</v>
       </c>
@@ -21638,7 +21639,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="632" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>1</v>
       </c>
@@ -21675,7 +21676,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="633" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>1</v>
       </c>
@@ -21722,7 +21723,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="634" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>1</v>
       </c>
@@ -21769,7 +21770,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="635" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>1</v>
       </c>
@@ -21809,7 +21810,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="636" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>1</v>
       </c>
@@ -21854,7 +21855,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="637" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>1</v>
       </c>
@@ -21898,7 +21899,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="638" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>1</v>
       </c>
@@ -21935,7 +21936,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="639" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>1</v>
       </c>
@@ -21982,7 +21983,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="640" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>1</v>
       </c>
@@ -22029,7 +22030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="641" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1" t="s">
         <v>1</v>
       </c>
@@ -22069,7 +22070,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="642" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>1</v>
       </c>
@@ -22093,7 +22094,7 @@
       </c>
       <c r="Q642" s="3"/>
     </row>
-    <row r="643" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>1</v>
       </c>
@@ -22120,7 +22121,7 @@
       </c>
       <c r="Q643" s="3"/>
     </row>
-    <row r="644" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>1</v>
       </c>
@@ -22144,7 +22145,7 @@
       </c>
       <c r="Q644" s="3"/>
     </row>
-    <row r="645" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>1</v>
       </c>
@@ -22171,7 +22172,7 @@
       </c>
       <c r="Q645" s="3"/>
     </row>
-    <row r="646" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>1</v>
       </c>
@@ -22195,7 +22196,7 @@
       </c>
       <c r="Q646" s="3"/>
     </row>
-    <row r="647" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>1</v>
       </c>
@@ -22222,7 +22223,7 @@
       </c>
       <c r="Q647" s="3"/>
     </row>
-    <row r="648" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>1</v>
       </c>
@@ -22246,7 +22247,7 @@
       </c>
       <c r="Q648" s="3"/>
     </row>
-    <row r="649" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>1</v>
       </c>
@@ -22273,7 +22274,7 @@
       </c>
       <c r="Q649" s="3"/>
     </row>
-    <row r="650" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>1</v>
       </c>
@@ -22297,7 +22298,7 @@
       </c>
       <c r="Q650" s="3"/>
     </row>
-    <row r="651" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>1</v>
       </c>
@@ -22323,7 +22324,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="652" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>1</v>
       </c>
@@ -22346,7 +22347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="653" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>1</v>
       </c>
@@ -22372,7 +22373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="654" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>1</v>
       </c>
@@ -22395,7 +22396,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="655" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>1</v>
       </c>
@@ -22421,7 +22422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="656" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>1</v>
       </c>
@@ -22444,7 +22445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>1</v>
       </c>
@@ -22470,7 +22471,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>1</v>
       </c>
@@ -22493,7 +22494,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>1</v>
       </c>
@@ -22519,7 +22520,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>1</v>
       </c>
@@ -22542,7 +22543,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>1</v>
       </c>
@@ -22568,7 +22569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>1</v>
       </c>
@@ -22591,7 +22592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>1</v>
       </c>
@@ -22617,7 +22618,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>1</v>
       </c>
@@ -22640,7 +22641,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>1</v>
       </c>
@@ -22666,7 +22667,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>1</v>
       </c>
@@ -22689,7 +22690,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>1</v>
       </c>
@@ -22715,7 +22716,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>1</v>
       </c>
@@ -22738,7 +22739,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>1</v>
       </c>
@@ -22764,7 +22765,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>1</v>
       </c>
@@ -22787,7 +22788,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>1</v>
       </c>
@@ -22813,7 +22814,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>1</v>
       </c>
@@ -22836,7 +22837,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>1</v>
       </c>
@@ -22862,7 +22863,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>1</v>
       </c>
@@ -22885,7 +22886,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>1</v>
       </c>
@@ -22911,7 +22912,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>1</v>
       </c>
@@ -22935,7 +22936,7 @@
       </c>
       <c r="H676"/>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>1</v>
       </c>
@@ -22962,7 +22963,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>1</v>
       </c>
@@ -22986,7 +22987,7 @@
       </c>
       <c r="H678"/>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>1</v>
       </c>
@@ -23013,7 +23014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>1</v>
       </c>
@@ -23037,7 +23038,7 @@
       </c>
       <c r="H680"/>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>1</v>
       </c>
@@ -23064,7 +23065,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>1</v>
       </c>
@@ -23088,7 +23089,7 @@
       </c>
       <c r="H682"/>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>1</v>
       </c>
@@ -23115,7 +23116,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>1</v>
       </c>
@@ -23139,7 +23140,7 @@
       </c>
       <c r="H684"/>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>1</v>
       </c>
@@ -23166,7 +23167,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>1</v>
       </c>
@@ -23190,7 +23191,7 @@
       </c>
       <c r="H686"/>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>1</v>
       </c>
@@ -23217,7 +23218,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>1</v>
       </c>
@@ -23241,7 +23242,7 @@
       </c>
       <c r="H688"/>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>1</v>
       </c>
@@ -23268,7 +23269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>1</v>
       </c>
@@ -23292,7 +23293,7 @@
       </c>
       <c r="H690"/>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>1</v>
       </c>
@@ -23319,7 +23320,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>1</v>
       </c>
@@ -23343,7 +23344,7 @@
       </c>
       <c r="H692"/>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>1</v>
       </c>
@@ -23370,7 +23371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>1</v>
       </c>
@@ -23394,7 +23395,7 @@
       </c>
       <c r="H694"/>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>1</v>
       </c>
@@ -23421,7 +23422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>1</v>
       </c>
@@ -23445,7 +23446,7 @@
       </c>
       <c r="H696"/>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>1</v>
       </c>
@@ -23472,7 +23473,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1" t="s">
         <v>1</v>
       </c>
@@ -23496,7 +23497,7 @@
       </c>
       <c r="H698"/>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" s="1" t="s">
         <v>1</v>
       </c>
@@ -23523,7 +23524,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1" t="s">
         <v>1</v>
       </c>
@@ -23547,7 +23548,7 @@
       </c>
       <c r="H700"/>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1" t="s">
         <v>1</v>
       </c>
@@ -23574,7 +23575,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1" t="s">
         <v>1</v>
       </c>
@@ -23598,7 +23599,7 @@
       </c>
       <c r="H702"/>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1" t="s">
         <v>1</v>
       </c>
@@ -23625,7 +23626,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" s="1" t="s">
         <v>1</v>
       </c>
@@ -23649,7 +23650,7 @@
       </c>
       <c r="H704"/>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1" t="s">
         <v>1</v>
       </c>
@@ -23676,7 +23677,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1" t="s">
         <v>1</v>
       </c>
@@ -23700,7 +23701,7 @@
       </c>
       <c r="H706"/>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1" t="s">
         <v>1</v>
       </c>
@@ -23727,7 +23728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1" t="s">
         <v>1</v>
       </c>
@@ -23751,7 +23752,7 @@
       </c>
       <c r="H708"/>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1" t="s">
         <v>1</v>
       </c>
@@ -23778,7 +23779,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1" t="s">
         <v>1</v>
       </c>
@@ -23802,7 +23803,7 @@
       </c>
       <c r="H710"/>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1" t="s">
         <v>1</v>
       </c>
@@ -23829,7 +23830,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1" t="s">
         <v>1</v>
       </c>
@@ -23853,7 +23854,7 @@
       </c>
       <c r="H712"/>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1" t="s">
         <v>1</v>
       </c>
@@ -23880,7 +23881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1" t="s">
         <v>1</v>
       </c>
@@ -23904,7 +23905,7 @@
       </c>
       <c r="H714"/>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1" t="s">
         <v>1</v>
       </c>
@@ -23931,7 +23932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1" t="s">
         <v>1</v>
       </c>
@@ -23955,7 +23956,7 @@
       </c>
       <c r="H716"/>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1" t="s">
         <v>1</v>
       </c>
@@ -23982,7 +23983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1" t="s">
         <v>1</v>
       </c>
@@ -24006,7 +24007,7 @@
       </c>
       <c r="H718"/>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" s="1" t="s">
         <v>1</v>
       </c>
@@ -24033,7 +24034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1" t="s">
         <v>1</v>
       </c>
@@ -24057,7 +24058,7 @@
       </c>
       <c r="H720"/>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" s="1" t="s">
         <v>1</v>
       </c>
@@ -24084,7 +24085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" s="1" t="s">
         <v>1</v>
       </c>
@@ -24108,7 +24109,7 @@
       </c>
       <c r="H722"/>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" s="1" t="s">
         <v>1</v>
       </c>
@@ -24135,7 +24136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" s="1" t="s">
         <v>1</v>
       </c>
@@ -24159,7 +24160,7 @@
       </c>
       <c r="H724"/>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" s="1" t="s">
         <v>1</v>
       </c>
@@ -24186,7 +24187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" s="1" t="s">
         <v>1</v>
       </c>
@@ -24210,7 +24211,7 @@
       </c>
       <c r="H726"/>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" s="1" t="s">
         <v>1</v>
       </c>
@@ -24237,7 +24238,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" s="1" t="s">
         <v>1</v>
       </c>
@@ -24261,7 +24262,7 @@
       </c>
       <c r="H728"/>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" s="1" t="s">
         <v>1</v>
       </c>
@@ -24288,7 +24289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" s="1" t="s">
         <v>1</v>
       </c>
@@ -24312,7 +24313,7 @@
       </c>
       <c r="H730"/>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" s="1" t="s">
         <v>1</v>
       </c>
@@ -24339,7 +24340,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" s="1" t="s">
         <v>1</v>
       </c>
@@ -24363,7 +24364,7 @@
       </c>
       <c r="H732"/>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" s="1" t="s">
         <v>1</v>
       </c>
@@ -24390,7 +24391,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" s="1" t="s">
         <v>1</v>
       </c>
@@ -24414,7 +24415,7 @@
       </c>
       <c r="H734"/>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" s="1" t="s">
         <v>1</v>
       </c>
@@ -24441,7 +24442,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" s="1" t="s">
         <v>1</v>
       </c>
@@ -24465,7 +24466,7 @@
       </c>
       <c r="H736"/>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" s="1" t="s">
         <v>1</v>
       </c>
@@ -24492,7 +24493,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" s="1" t="s">
         <v>1</v>
       </c>
@@ -24516,7 +24517,7 @@
       </c>
       <c r="H738"/>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>1</v>
       </c>
@@ -24543,7 +24544,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" s="1" t="s">
         <v>1</v>
       </c>
@@ -24567,7 +24568,7 @@
       </c>
       <c r="H740"/>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" s="1" t="s">
         <v>1</v>
       </c>
@@ -24594,7 +24595,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" s="1" t="s">
         <v>1</v>
       </c>
@@ -24618,7 +24619,7 @@
       </c>
       <c r="H742"/>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" s="1" t="s">
         <v>1</v>
       </c>
@@ -24645,7 +24646,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" s="1" t="s">
         <v>1</v>
       </c>
@@ -24669,7 +24670,7 @@
       </c>
       <c r="H744"/>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>1</v>
       </c>
@@ -24696,7 +24697,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" s="1" t="s">
         <v>1</v>
       </c>
@@ -24720,7 +24721,7 @@
       </c>
       <c r="H746"/>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" s="1" t="s">
         <v>1</v>
       </c>
@@ -24747,7 +24748,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" s="1" t="s">
         <v>1</v>
       </c>
@@ -24771,7 +24772,7 @@
       </c>
       <c r="H748"/>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" s="1" t="s">
         <v>1</v>
       </c>
@@ -24798,7 +24799,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" s="1" t="s">
         <v>1</v>
       </c>
@@ -24822,7 +24823,7 @@
       </c>
       <c r="H750"/>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" s="1" t="s">
         <v>1</v>
       </c>
@@ -24849,7 +24850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" s="1" t="s">
         <v>1</v>
       </c>
@@ -24873,7 +24874,7 @@
       </c>
       <c r="H752"/>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" s="1" t="s">
         <v>1</v>
       </c>
@@ -24900,7 +24901,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" s="1" t="s">
         <v>1</v>
       </c>
@@ -24924,7 +24925,7 @@
       </c>
       <c r="H754"/>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" s="1" t="s">
         <v>1</v>
       </c>
@@ -24951,7 +24952,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" s="1" t="s">
         <v>1</v>
       </c>
@@ -24975,7 +24976,7 @@
       </c>
       <c r="H756"/>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" s="1" t="s">
         <v>1</v>
       </c>
@@ -25002,7 +25003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" s="1" t="s">
         <v>1</v>
       </c>
@@ -25026,7 +25027,7 @@
       </c>
       <c r="H758"/>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" s="1" t="s">
         <v>1</v>
       </c>
@@ -25053,7 +25054,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" s="1" t="s">
         <v>1</v>
       </c>
@@ -25077,7 +25078,7 @@
       </c>
       <c r="H760"/>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" s="1" t="s">
         <v>1</v>
       </c>
@@ -25104,7 +25105,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" s="1" t="s">
         <v>1</v>
       </c>
@@ -25128,7 +25129,7 @@
       </c>
       <c r="H762"/>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" s="1" t="s">
         <v>1</v>
       </c>
@@ -25155,7 +25156,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" s="1" t="s">
         <v>1</v>
       </c>
@@ -25179,7 +25180,7 @@
       </c>
       <c r="H764"/>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" s="1" t="s">
         <v>1</v>
       </c>
@@ -25206,7 +25207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" s="1" t="s">
         <v>1</v>
       </c>
@@ -25230,7 +25231,7 @@
       </c>
       <c r="H766"/>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" s="1" t="s">
         <v>1</v>
       </c>
@@ -25257,7 +25258,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" s="1" t="s">
         <v>1</v>
       </c>
@@ -25281,7 +25282,7 @@
       </c>
       <c r="H768"/>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" s="1" t="s">
         <v>1</v>
       </c>
@@ -25308,7 +25309,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
         <v>1</v>
       </c>
@@ -25332,7 +25333,7 @@
       </c>
       <c r="H770"/>
     </row>
-    <row r="771" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
         <v>1</v>
       </c>
@@ -25359,7 +25360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
@@ -25383,7 +25384,7 @@
       </c>
       <c r="H772"/>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" s="1" t="s">
         <v>1</v>
       </c>
@@ -25410,7 +25411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" s="1" t="s">
         <v>1</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" s="1" t="s">
         <v>1</v>
       </c>
@@ -25459,7 +25460,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" s="1" t="s">
         <v>1</v>
       </c>
@@ -25483,7 +25484,7 @@
       </c>
       <c r="H776"/>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" s="1" t="s">
         <v>1</v>
       </c>
@@ -25510,7 +25511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" s="1" t="s">
         <v>1</v>
       </c>
@@ -25534,7 +25535,7 @@
       </c>
       <c r="H778"/>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" s="1" t="s">
         <v>1</v>
       </c>
@@ -25561,7 +25562,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" s="1" t="s">
         <v>1</v>
       </c>
@@ -25585,7 +25586,7 @@
       </c>
       <c r="H780"/>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" s="1" t="s">
         <v>1</v>
       </c>
@@ -25612,7 +25613,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" s="1" t="s">
         <v>1</v>
       </c>
@@ -25636,7 +25637,7 @@
       </c>
       <c r="H782"/>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>1</v>
       </c>
@@ -25663,7 +25664,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" s="1" t="s">
         <v>1</v>
       </c>
@@ -25687,7 +25688,7 @@
       </c>
       <c r="H784"/>
     </row>
-    <row r="785" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>1</v>
       </c>
@@ -25714,7 +25715,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" s="1" t="s">
         <v>1</v>
       </c>
@@ -25738,7 +25739,7 @@
       </c>
       <c r="H786"/>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" s="1" t="s">
         <v>1</v>
       </c>
@@ -25765,7 +25766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" s="1" t="s">
         <v>1</v>
       </c>
@@ -25789,7 +25790,7 @@
       </c>
       <c r="H788"/>
     </row>
-    <row r="789" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" s="1" t="s">
         <v>1</v>
       </c>
@@ -25816,7 +25817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="790" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" s="1" t="s">
         <v>1</v>
       </c>
@@ -25840,7 +25841,7 @@
       </c>
       <c r="H790"/>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" s="1" t="s">
         <v>1</v>
       </c>
@@ -25867,7 +25868,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" s="1" t="s">
         <v>1</v>
       </c>
@@ -25891,7 +25892,7 @@
       </c>
       <c r="H792"/>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" s="1" t="s">
         <v>1</v>
       </c>
@@ -25918,7 +25919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" s="1" t="s">
         <v>1</v>
       </c>
@@ -25941,7 +25942,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" s="1" t="s">
         <v>1</v>
       </c>
@@ -25967,7 +25968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" s="1" t="s">
         <v>1</v>
       </c>
@@ -25991,7 +25992,7 @@
       </c>
       <c r="H796"/>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" s="1" t="s">
         <v>1</v>
       </c>
@@ -26018,7 +26019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" s="1" t="s">
         <v>1</v>
       </c>
@@ -26042,7 +26043,7 @@
       </c>
       <c r="H798"/>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" s="1" t="s">
         <v>1</v>
       </c>
@@ -26069,7 +26070,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" s="1" t="s">
         <v>1</v>
       </c>
@@ -26093,7 +26094,7 @@
       </c>
       <c r="H800"/>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" s="1" t="s">
         <v>1</v>
       </c>
@@ -26120,7 +26121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" s="1" t="s">
         <v>1</v>
       </c>
@@ -26144,7 +26145,7 @@
       </c>
       <c r="H802"/>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" s="1" t="s">
         <v>1</v>
       </c>
@@ -26171,7 +26172,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" s="1" t="s">
         <v>1</v>
       </c>
@@ -26195,7 +26196,7 @@
       </c>
       <c r="H804"/>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" s="1" t="s">
         <v>1</v>
       </c>
@@ -26222,7 +26223,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" s="1" t="s">
         <v>1</v>
       </c>
@@ -26246,7 +26247,7 @@
       </c>
       <c r="H806"/>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" s="1" t="s">
         <v>1</v>
       </c>
@@ -26273,7 +26274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" s="1" t="s">
         <v>1</v>
       </c>
@@ -26297,7 +26298,7 @@
       </c>
       <c r="H808"/>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" s="1" t="s">
         <v>1</v>
       </c>
@@ -26324,7 +26325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" s="1" t="s">
         <v>1</v>
       </c>
@@ -26348,7 +26349,7 @@
       </c>
       <c r="H810"/>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>1</v>
       </c>
@@ -26375,7 +26376,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" s="1" t="s">
         <v>1</v>
       </c>
@@ -26398,7 +26399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" s="1" t="s">
         <v>1</v>
       </c>
@@ -26424,7 +26425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" s="1" t="s">
         <v>1</v>
       </c>
@@ -26448,7 +26449,7 @@
       </c>
       <c r="H814"/>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" s="1" t="s">
         <v>1</v>
       </c>
@@ -26475,7 +26476,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" s="1" t="s">
         <v>1</v>
       </c>
@@ -26499,7 +26500,7 @@
       </c>
       <c r="H816"/>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" s="1" t="s">
         <v>1</v>
       </c>
@@ -26526,7 +26527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" s="1" t="s">
         <v>1</v>
       </c>
@@ -26550,7 +26551,7 @@
       </c>
       <c r="H818"/>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" s="1" t="s">
         <v>1</v>
       </c>
@@ -26577,7 +26578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" s="1" t="s">
         <v>1</v>
       </c>
@@ -26601,7 +26602,7 @@
       </c>
       <c r="H820"/>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" s="1" t="s">
         <v>1</v>
       </c>
@@ -26628,7 +26629,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" s="1" t="s">
         <v>1</v>
       </c>
@@ -26652,7 +26653,7 @@
       </c>
       <c r="H822"/>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" s="1" t="s">
         <v>1</v>
       </c>
@@ -26679,7 +26680,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" s="1" t="s">
         <v>1</v>
       </c>
@@ -26703,7 +26704,7 @@
       </c>
       <c r="H824"/>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" s="1" t="s">
         <v>1</v>
       </c>
@@ -26730,7 +26731,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" s="1" t="s">
         <v>1</v>
       </c>
@@ -26754,7 +26755,7 @@
       </c>
       <c r="H826"/>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" s="1" t="s">
         <v>1</v>
       </c>
@@ -26781,7 +26782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" s="1" t="s">
         <v>1</v>
       </c>
@@ -26804,7 +26805,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" s="1" t="s">
         <v>1</v>
       </c>
@@ -26830,7 +26831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" s="1" t="s">
         <v>1</v>
       </c>
@@ -26853,7 +26854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" s="1" t="s">
         <v>1</v>
       </c>
@@ -26879,7 +26880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" s="1" t="s">
         <v>1</v>
       </c>
@@ -26902,7 +26903,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" s="1" t="s">
         <v>1</v>
       </c>
@@ -26928,7 +26929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" s="1" t="s">
         <v>1</v>
       </c>
@@ -26951,7 +26952,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" s="1" t="s">
         <v>1</v>
       </c>
@@ -26977,7 +26978,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" s="1" t="s">
         <v>1</v>
       </c>
@@ -27001,7 +27002,7 @@
       </c>
       <c r="H836"/>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" s="1" t="s">
         <v>1</v>
       </c>
@@ -27028,7 +27029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" s="1" t="s">
         <v>1</v>
       </c>
@@ -27052,7 +27053,7 @@
       </c>
       <c r="H838"/>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" s="1" t="s">
         <v>1</v>
       </c>
@@ -27079,7 +27080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" s="1" t="s">
         <v>1</v>
       </c>
@@ -27103,7 +27104,7 @@
       </c>
       <c r="H840"/>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" s="1" t="s">
         <v>1</v>
       </c>
@@ -27130,7 +27131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" s="1" t="s">
         <v>1</v>
       </c>
@@ -27154,7 +27155,7 @@
       </c>
       <c r="H842"/>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>1</v>
       </c>
@@ -27181,7 +27182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" s="1" t="s">
         <v>1</v>
       </c>
@@ -27205,7 +27206,7 @@
       </c>
       <c r="H844"/>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" s="1" t="s">
         <v>1</v>
       </c>
@@ -27232,7 +27233,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" s="1" t="s">
         <v>1</v>
       </c>
@@ -27256,7 +27257,7 @@
       </c>
       <c r="H846"/>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>1</v>
       </c>
@@ -27283,7 +27284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" s="1" t="s">
         <v>1</v>
       </c>
@@ -27306,7 +27307,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" s="1" t="s">
         <v>1</v>
       </c>
@@ -27332,7 +27333,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" s="1" t="s">
         <v>1</v>
       </c>
@@ -27355,7 +27356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" s="1" t="s">
         <v>1</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" s="1" t="s">
         <v>1</v>
       </c>
@@ -27404,7 +27405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" s="1" t="s">
         <v>1</v>
       </c>
@@ -27430,7 +27431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" s="1" t="s">
         <v>1</v>
       </c>
@@ -27453,7 +27454,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" s="1" t="s">
         <v>1</v>
       </c>
@@ -27479,7 +27480,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" s="1" t="s">
         <v>1</v>
       </c>
@@ -27502,7 +27503,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" s="1" t="s">
         <v>1</v>
       </c>
@@ -27528,7 +27529,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" s="1" t="s">
         <v>1</v>
       </c>
@@ -27552,7 +27553,7 @@
       </c>
       <c r="H858"/>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" s="1" t="s">
         <v>1</v>
       </c>
@@ -27579,7 +27580,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" s="1" t="s">
         <v>1</v>
       </c>
@@ -27602,7 +27603,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" s="1" t="s">
         <v>1</v>
       </c>
@@ -27628,7 +27629,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" s="1" t="s">
         <v>1</v>
       </c>
@@ -27651,7 +27652,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" s="1" t="s">
         <v>1</v>
       </c>
@@ -27677,7 +27678,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" s="1" t="s">
         <v>1</v>
       </c>
@@ -27700,7 +27701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" s="1" t="s">
         <v>1</v>
       </c>
@@ -27726,7 +27727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" s="1" t="s">
         <v>1</v>
       </c>
@@ -27749,7 +27750,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" s="1" t="s">
         <v>1</v>
       </c>
@@ -27775,7 +27776,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" s="1" t="s">
         <v>1</v>
       </c>
@@ -27798,7 +27799,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>1</v>
       </c>
@@ -27824,7 +27825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" s="1" t="s">
         <v>1</v>
       </c>
@@ -27847,7 +27848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" s="1" t="s">
         <v>1</v>
       </c>
@@ -27873,7 +27874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" s="1" t="s">
         <v>1</v>
       </c>
@@ -27896,7 +27897,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" s="1" t="s">
         <v>1</v>
       </c>
@@ -27922,7 +27923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" s="1" t="s">
         <v>1</v>
       </c>
@@ -27945,7 +27946,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" s="1" t="s">
         <v>1</v>
       </c>
@@ -27971,7 +27972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" s="1" t="s">
         <v>1</v>
       </c>
@@ -27994,7 +27995,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" s="1" t="s">
         <v>1</v>
       </c>
@@ -28020,7 +28021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" s="1" t="s">
         <v>1</v>
       </c>
@@ -28044,7 +28045,7 @@
       </c>
       <c r="H878"/>
     </row>
-    <row r="879" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" s="1" t="s">
         <v>1</v>
       </c>
@@ -28071,7 +28072,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="880" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" s="1" t="s">
         <v>1</v>
       </c>
@@ -28095,7 +28096,7 @@
       </c>
       <c r="H880"/>
     </row>
-    <row r="881" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" s="1" t="s">
         <v>1</v>
       </c>
@@ -28122,7 +28123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="882" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A882" s="1" t="s">
         <v>1</v>
       </c>
@@ -28146,7 +28147,7 @@
       </c>
       <c r="H882"/>
     </row>
-    <row r="883" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A883" s="1" t="s">
         <v>1</v>
       </c>
@@ -28173,7 +28174,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="884" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A884" s="1" t="s">
         <v>1</v>
       </c>
@@ -28197,7 +28198,7 @@
       </c>
       <c r="H884"/>
     </row>
-    <row r="885" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A885" s="1" t="s">
         <v>1</v>
       </c>
@@ -28224,7 +28225,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="886" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A886" s="1" t="s">
         <v>1</v>
       </c>
@@ -28248,7 +28249,7 @@
       </c>
       <c r="H886"/>
     </row>
-    <row r="887" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A887" s="1" t="s">
         <v>1</v>
       </c>
@@ -28275,7 +28276,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="888" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A888" s="1" t="s">
         <v>1</v>
       </c>
@@ -28299,7 +28300,7 @@
       </c>
       <c r="H888"/>
     </row>
-    <row r="889" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A889" s="1" t="s">
         <v>1</v>
       </c>
@@ -28326,7 +28327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="890" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A890" s="1" t="s">
         <v>1</v>
       </c>
@@ -28350,7 +28351,7 @@
       </c>
       <c r="H890"/>
     </row>
-    <row r="891" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A891" s="1" t="s">
         <v>1</v>
       </c>
@@ -28377,7 +28378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="892" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A892" s="1" t="s">
         <v>1</v>
       </c>
@@ -28401,7 +28402,7 @@
       </c>
       <c r="H892"/>
     </row>
-    <row r="893" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A893" s="1" t="s">
         <v>1</v>
       </c>
@@ -28428,7 +28429,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="894" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>1</v>
       </c>
@@ -28451,7 +28452,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="895" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>1</v>
       </c>
@@ -28477,7 +28478,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="896" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A896" s="1" t="s">
         <v>1</v>
       </c>
@@ -28500,7 +28501,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="897" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A897" s="1" t="s">
         <v>1</v>
       </c>
@@ -28526,7 +28527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="898" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A898" s="1" t="s">
         <v>1</v>
       </c>
@@ -28549,7 +28550,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="899" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A899" s="1" t="s">
         <v>1</v>
       </c>
@@ -28575,7 +28576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="900" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A900" s="1" t="s">
         <v>1</v>
       </c>
@@ -28598,7 +28599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="901" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A901" s="1" t="s">
         <v>1</v>
       </c>
@@ -28624,7 +28625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="902" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A902" s="1" t="s">
         <v>1</v>
       </c>
@@ -28647,7 +28648,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="903" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A903" s="1" t="s">
         <v>1</v>
       </c>
@@ -28673,7 +28674,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="904" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A904" s="1" t="s">
         <v>1</v>
       </c>
@@ -28696,7 +28697,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="905" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A905" s="1" t="s">
         <v>1</v>
       </c>
@@ -28722,7 +28723,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="906" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A906" s="1" t="s">
         <v>1</v>
       </c>
@@ -28745,7 +28746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="907" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A907" s="1" t="s">
         <v>1</v>
       </c>
@@ -28771,7 +28772,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="908" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A908" s="1" t="s">
         <v>1</v>
       </c>
@@ -28794,7 +28795,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="909" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>1</v>
       </c>
@@ -28820,7 +28821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="910" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>1</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="911" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A911" s="1" t="s">
         <v>1</v>
       </c>
@@ -28869,7 +28870,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="912" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A912" s="1" t="s">
         <v>1</v>
       </c>
@@ -28892,7 +28893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="913" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A913" s="1" t="s">
         <v>1</v>
       </c>
@@ -28918,7 +28919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="914" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A914" s="1" t="s">
         <v>1</v>
       </c>
@@ -28941,7 +28942,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="915" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A915" s="1" t="s">
         <v>1</v>
       </c>
@@ -28967,7 +28968,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="916" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A916" s="1" t="s">
         <v>1</v>
       </c>
@@ -28990,7 +28991,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="917" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A917" s="1" t="s">
         <v>1</v>
       </c>
@@ -29016,7 +29017,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="918" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A918" s="1" t="s">
         <v>1</v>
       </c>
@@ -29039,7 +29040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="919" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A919" s="1" t="s">
         <v>1</v>
       </c>
@@ -29065,7 +29066,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="920" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A920" s="1" t="s">
         <v>1</v>
       </c>
@@ -29088,7 +29089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="921" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A921" s="1" t="s">
         <v>1</v>
       </c>
@@ -29114,7 +29115,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="922" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A922" s="1" t="s">
         <v>1</v>
       </c>
@@ -29137,7 +29138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="923" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A923" s="1" t="s">
         <v>1</v>
       </c>
@@ -29163,7 +29164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="924" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A924" s="1" t="s">
         <v>1</v>
       </c>
@@ -29186,7 +29187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="925" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A925" s="1" t="s">
         <v>1</v>
       </c>
@@ -29212,7 +29213,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="926" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A926" s="1" t="s">
         <v>1</v>
       </c>
@@ -29235,7 +29236,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="927" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A927" s="1" t="s">
         <v>1</v>
       </c>
@@ -29261,7 +29262,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="928" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A928" s="1" t="s">
         <v>1</v>
       </c>
@@ -29284,7 +29285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="929" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A929" s="1" t="s">
         <v>1</v>
       </c>
@@ -29310,7 +29311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="930" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A930" s="1" t="s">
         <v>1</v>
       </c>
@@ -29333,7 +29334,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="931" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A931" s="1" t="s">
         <v>1</v>
       </c>
@@ -29359,7 +29360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="932" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>1</v>
       </c>
@@ -29382,7 +29383,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="933" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A933" s="1" t="s">
         <v>1</v>
       </c>
@@ -29408,7 +29409,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="934" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A934" s="1" t="s">
         <v>1</v>
       </c>
@@ -29431,7 +29432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="935" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A935" s="1" t="s">
         <v>1</v>
       </c>
@@ -29457,7 +29458,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="936" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A936" s="1" t="s">
         <v>1</v>
       </c>
@@ -29480,7 +29481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="937" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A937" s="1" t="s">
         <v>1</v>
       </c>
@@ -29506,7 +29507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="938" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A938" s="1" t="s">
         <v>1</v>
       </c>
@@ -29529,7 +29530,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="939" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A939" s="1" t="s">
         <v>1</v>
       </c>
@@ -29555,7 +29556,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="940" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>1</v>
       </c>
@@ -29578,7 +29579,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="941" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A941" s="1" t="s">
         <v>1</v>
       </c>
@@ -29604,7 +29605,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="942" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A942" s="1" t="s">
         <v>1</v>
       </c>
@@ -29627,7 +29628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="943" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A943" s="1" t="s">
         <v>1</v>
       </c>
@@ -29653,7 +29654,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="944" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A944" s="1" t="s">
         <v>1</v>
       </c>
@@ -29676,7 +29677,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="945" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A945" s="1" t="s">
         <v>1</v>
       </c>
@@ -29702,7 +29703,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="946" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A946" s="1" t="s">
         <v>1</v>
       </c>
@@ -29725,7 +29726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="947" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A947" s="1" t="s">
         <v>1</v>
       </c>
@@ -29751,7 +29752,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="948" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A948" s="1" t="s">
         <v>1</v>
       </c>
@@ -29774,7 +29775,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="949" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A949" s="1" t="s">
         <v>1</v>
       </c>
@@ -29800,7 +29801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="950" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A950" s="1" t="s">
         <v>1</v>
       </c>
@@ -29838,7 +29839,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="951" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A951" s="1" t="s">
         <v>1</v>
       </c>
@@ -29869,7 +29870,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="952" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A952" s="1" t="s">
         <v>1</v>
       </c>
@@ -29907,7 +29908,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="953" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A953" s="1" t="s">
         <v>1</v>
       </c>
@@ -29938,7 +29939,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="954" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A954" s="1" t="s">
         <v>1</v>
       </c>
@@ -29976,7 +29977,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="955" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A955" s="1" t="s">
         <v>1</v>
       </c>
@@ -30007,7 +30008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="956" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A956" s="1" t="s">
         <v>1</v>
       </c>
@@ -30045,7 +30046,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="957" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A957" s="1" t="s">
         <v>1</v>
       </c>
@@ -30075,7 +30076,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="958" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A958" s="1" t="s">
         <v>1</v>
       </c>
@@ -30113,7 +30114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="959" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A959" s="1" t="s">
         <v>1</v>
       </c>
@@ -30144,7 +30145,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="960" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A960" s="1" t="s">
         <v>1</v>
       </c>
@@ -30182,7 +30183,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="961" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A961" s="1" t="s">
         <v>1</v>
       </c>
@@ -30213,7 +30214,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="962" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A962" s="1" t="s">
         <v>1</v>
       </c>
@@ -30251,7 +30252,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="963" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A963" s="1" t="s">
         <v>1</v>
       </c>
@@ -30282,7 +30283,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="964" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A964" s="1" t="s">
         <v>1</v>
       </c>
@@ -30320,7 +30321,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="965" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A965" s="1" t="s">
         <v>1</v>
       </c>
@@ -30350,7 +30351,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="966" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A966" s="1" t="s">
         <v>1</v>
       </c>
@@ -30388,7 +30389,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="967" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A967" s="1" t="s">
         <v>1</v>
       </c>
@@ -30419,7 +30420,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="968" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A968" s="1" t="s">
         <v>1</v>
       </c>
@@ -30457,7 +30458,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="969" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A969" s="1" t="s">
         <v>1</v>
       </c>
@@ -30488,7 +30489,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="970" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A970" s="1" t="s">
         <v>1</v>
       </c>
@@ -30526,7 +30527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="971" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A971" s="1" t="s">
         <v>1</v>
       </c>
@@ -30557,7 +30558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="972" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A972" s="1" t="s">
         <v>1</v>
       </c>
@@ -30595,7 +30596,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="973" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A973" s="1" t="s">
         <v>1</v>
       </c>
@@ -30626,7 +30627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="974" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A974" s="1" t="s">
         <v>1</v>
       </c>
@@ -30664,7 +30665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="975" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A975" s="1" t="s">
         <v>1</v>
       </c>
@@ -30695,7 +30696,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="976" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A976" s="1" t="s">
         <v>1</v>
       </c>
@@ -30733,7 +30734,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="977" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A977" s="1" t="s">
         <v>1</v>
       </c>
@@ -30764,7 +30765,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="978" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A978" s="1" t="s">
         <v>1</v>
       </c>
@@ -30802,7 +30803,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="979" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A979" s="1" t="s">
         <v>1</v>
       </c>
@@ -30833,7 +30834,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="980" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A980" s="1" t="s">
         <v>1</v>
       </c>
@@ -30874,7 +30875,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="981" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A981" s="1" t="s">
         <v>1</v>
       </c>
@@ -30908,7 +30909,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="982" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A982" s="1" t="s">
         <v>1</v>
       </c>
@@ -30949,7 +30950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="983" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A983" s="1" t="s">
         <v>1</v>
       </c>
@@ -30983,7 +30984,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="984" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A984" s="1" t="s">
         <v>1</v>
       </c>
@@ -31024,7 +31025,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="985" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A985" s="1" t="s">
         <v>1</v>
       </c>
@@ -31058,7 +31059,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="986" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A986" s="1" t="s">
         <v>1</v>
       </c>
@@ -31099,7 +31100,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="987" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A987" s="1" t="s">
         <v>1</v>
       </c>
@@ -31132,7 +31133,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="988" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A988" s="1" t="s">
         <v>1</v>
       </c>
@@ -31173,7 +31174,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="989" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A989" s="1" t="s">
         <v>1</v>
       </c>
@@ -31207,7 +31208,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="990" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A990" s="1" t="s">
         <v>1</v>
       </c>
@@ -31248,7 +31249,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="991" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A991" s="1" t="s">
         <v>1</v>
       </c>
@@ -31282,7 +31283,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="992" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A992" s="1" t="s">
         <v>1</v>
       </c>
@@ -31323,7 +31324,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="993" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A993" s="1" t="s">
         <v>1</v>
       </c>
@@ -31357,7 +31358,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="994" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A994" s="1" t="s">
         <v>1</v>
       </c>
@@ -31398,7 +31399,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="995" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A995" s="1" t="s">
         <v>1</v>
       </c>
@@ -31431,7 +31432,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="996" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A996" s="1" t="s">
         <v>1</v>
       </c>
@@ -31472,7 +31473,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="997" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A997" s="1" t="s">
         <v>1</v>
       </c>
@@ -31506,7 +31507,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="998" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A998" s="1" t="s">
         <v>1</v>
       </c>
@@ -31547,7 +31548,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="999" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A999" s="1" t="s">
         <v>1</v>
       </c>
@@ -31581,7 +31582,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1000" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="1" t="s">
         <v>1</v>
       </c>
@@ -31622,7 +31623,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1001" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1001" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1001" s="1" t="s">
         <v>1</v>
       </c>
@@ -31656,7 +31657,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1002" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1002" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1002" s="1" t="s">
         <v>1</v>
       </c>
@@ -31697,7 +31698,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1003" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1003" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1003" s="1" t="s">
         <v>1</v>
       </c>
@@ -31731,7 +31732,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1004" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1004" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1004" s="1" t="s">
         <v>1</v>
       </c>
@@ -31772,7 +31773,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1005" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1005" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1005" s="1" t="s">
         <v>1</v>
       </c>
@@ -31806,7 +31807,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1006" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1006" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1006" s="1" t="s">
         <v>1</v>
       </c>
@@ -31847,7 +31848,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1007" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1007" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1007" s="1" t="s">
         <v>1</v>
       </c>
@@ -31881,7 +31882,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1008" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1008" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1008" s="1" t="s">
         <v>1</v>
       </c>
@@ -31922,7 +31923,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="1009" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1009" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1009" s="1" t="s">
         <v>1</v>
       </c>
@@ -31956,7 +31957,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1010" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1010" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1010" s="1" t="s">
         <v>1</v>
       </c>
@@ -31988,7 +31989,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1011" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1011" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1011" s="1" t="s">
         <v>1</v>
       </c>
@@ -32020,7 +32021,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1012" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1012" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1012" s="1" t="s">
         <v>1</v>
       </c>
@@ -32052,7 +32053,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1013" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1013" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1013" s="1" t="s">
         <v>1</v>
       </c>
@@ -32084,7 +32085,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1014" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1014" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1014" s="1" t="s">
         <v>1</v>
       </c>
@@ -32116,7 +32117,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1015" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1015" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1015" s="1" t="s">
         <v>1</v>
       </c>
@@ -32148,7 +32149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1016" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1016" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1016" s="1" t="s">
         <v>1</v>
       </c>
@@ -32180,7 +32181,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1017" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1017" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1017" s="1" t="s">
         <v>1</v>
       </c>
@@ -32212,7 +32213,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1018" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1018" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1018" s="1" t="s">
         <v>1</v>
       </c>
@@ -32244,7 +32245,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1019" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1019" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1019" s="1" t="s">
         <v>1</v>
       </c>
@@ -32276,7 +32277,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1020" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1020" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1020" s="1" t="s">
         <v>1</v>
       </c>
@@ -32308,7 +32309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1021" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1021" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1021" s="1" t="s">
         <v>1</v>
       </c>
@@ -32340,7 +32341,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1022" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1022" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1022" s="1" t="s">
         <v>1</v>
       </c>
@@ -32372,7 +32373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1023" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1023" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1023" s="1" t="s">
         <v>1</v>
       </c>
@@ -32404,7 +32405,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1024" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1024" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1024" s="1" t="s">
         <v>1</v>
       </c>
@@ -32436,7 +32437,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="1025" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1025" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1025" s="1" t="s">
         <v>1</v>
       </c>
@@ -32453,7 +32454,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="1" t="s">
         <v>1</v>
       </c>
@@ -32473,7 +32474,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1027" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1027" s="1" t="s">
         <v>1</v>
       </c>
@@ -32490,7 +32491,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="1028" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1028" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1028" s="1" t="s">
         <v>1</v>
       </c>
@@ -32510,7 +32511,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1029" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1029" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1029" s="1" t="s">
         <v>1</v>
       </c>
@@ -32527,7 +32528,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1030" s="1" t="s">
         <v>1</v>
       </c>
@@ -32547,7 +32548,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1031" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1031" s="1" t="s">
         <v>1</v>
       </c>
@@ -32564,7 +32565,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="1032" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="1" t="s">
         <v>1</v>
       </c>
@@ -32584,7 +32585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1033" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1033" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1033" s="1" t="s">
         <v>1</v>
       </c>
@@ -32601,7 +32602,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="1034" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1034" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1034" s="1" t="s">
         <v>1</v>
       </c>
@@ -32621,7 +32622,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1035" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1035" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1035" s="1" t="s">
         <v>1</v>
       </c>
@@ -32638,7 +32639,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="1036" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1036" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1036" s="1" t="s">
         <v>1</v>
       </c>
@@ -32658,7 +32659,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1037" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1037" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1037" s="1" t="s">
         <v>1</v>
       </c>
@@ -32675,7 +32676,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="1038" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1038" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1038" s="1" t="s">
         <v>1</v>
       </c>
@@ -32695,7 +32696,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1039" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1039" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1039" s="1" t="s">
         <v>1</v>
       </c>
@@ -32712,7 +32713,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="1040" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1040" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1040" s="1" t="s">
         <v>1</v>
       </c>
@@ -32732,7 +32733,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1041" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1041" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1041" s="1" t="s">
         <v>1</v>
       </c>
@@ -32749,7 +32750,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="1042" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1042" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1042" s="1" t="s">
         <v>1</v>
       </c>
@@ -32769,7 +32770,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1043" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1043" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1043" s="1" t="s">
         <v>1</v>
       </c>
@@ -32786,7 +32787,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="1044" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1044" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1044" s="1" t="s">
         <v>1</v>
       </c>
@@ -32806,7 +32807,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1045" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1045" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1045" s="1" t="s">
         <v>1</v>
       </c>
@@ -32823,7 +32824,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="1046" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1046" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1046" s="1" t="s">
         <v>1</v>
       </c>
@@ -32843,7 +32844,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1047" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1047" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1047" s="1" t="s">
         <v>1</v>
       </c>
@@ -32860,7 +32861,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="1048" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1048" s="1" t="s">
         <v>1</v>
       </c>
@@ -32880,7 +32881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1049" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1049" s="1" t="s">
         <v>1</v>
       </c>
@@ -32897,7 +32898,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="1050" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1050" s="1" t="s">
         <v>1</v>
       </c>
@@ -32917,7 +32918,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1051" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1051" s="1" t="s">
         <v>1</v>
       </c>
@@ -32934,7 +32935,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="1052" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1052" s="1" t="s">
         <v>1</v>
       </c>
@@ -32954,7 +32955,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1053" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1053" s="1" t="s">
         <v>1</v>
       </c>
@@ -32971,7 +32972,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="1054" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1054" s="1" t="s">
         <v>1</v>
       </c>
@@ -32991,7 +32992,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1055" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1055" s="1" t="s">
         <v>1</v>
       </c>
@@ -33008,7 +33009,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="1056" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1056" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1056" s="1" t="s">
         <v>1</v>
       </c>
@@ -33028,7 +33029,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1057" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1057" s="1" t="s">
         <v>1</v>
       </c>
@@ -33051,7 +33052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1058" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1058" s="1" t="s">
         <v>1</v>
       </c>
@@ -33077,7 +33078,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1059" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1059" s="1" t="s">
         <v>1</v>
       </c>
@@ -33100,7 +33101,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1060" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1060" s="1" t="s">
         <v>1</v>
       </c>
@@ -33126,7 +33127,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1061" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1061" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1061" s="1" t="s">
         <v>1</v>
       </c>
@@ -33149,7 +33150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1062" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1062" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1062" s="1" t="s">
         <v>1</v>
       </c>
@@ -33175,7 +33176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1063" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1063" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1063" s="1" t="s">
         <v>1</v>
       </c>
@@ -33198,7 +33199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="1064" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1064" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1064" s="1" t="s">
         <v>1</v>
       </c>
@@ -33224,7 +33225,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1065" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1065" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1065" s="1" t="s">
         <v>1</v>
       </c>
@@ -33247,7 +33248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1066" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1066" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1066" s="1" t="s">
         <v>1</v>
       </c>
@@ -33273,7 +33274,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1067" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1067" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1067" s="1" t="s">
         <v>1</v>
       </c>
@@ -33296,7 +33297,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="1068" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1068" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1068" s="1" t="s">
         <v>1</v>
       </c>
@@ -33322,7 +33323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="1069" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1069" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1069" s="1" t="s">
         <v>1</v>
       </c>
@@ -33349,7 +33350,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1070" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1070" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1070" s="1" t="s">
         <v>1</v>
       </c>
@@ -33376,7 +33377,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1071" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1071" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1071" s="1" t="s">
         <v>1</v>
       </c>
@@ -33403,7 +33404,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1072" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1072" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1072" s="1" t="s">
         <v>1</v>
       </c>
@@ -33430,7 +33431,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1073" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1073" s="1" t="s">
         <v>1</v>
       </c>
@@ -33457,7 +33458,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="1074" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1074" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1074" s="1" t="s">
         <v>1</v>
       </c>
@@ -33496,7 +33497,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1075" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1075" s="1" t="s">
         <v>1</v>
       </c>
@@ -33535,7 +33536,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1076" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1076" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1076" s="1" t="s">
         <v>1</v>
       </c>
@@ -33574,7 +33575,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1077" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1077" s="1" t="s">
         <v>1</v>
       </c>
@@ -33613,7 +33614,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1078" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1078" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1078" s="1" t="s">
         <v>1</v>
       </c>
@@ -33652,7 +33653,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1079" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1079" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1079" s="1" t="s">
         <v>1</v>
       </c>
@@ -33691,7 +33692,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1080" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1080" s="1" t="s">
         <v>1</v>
       </c>
@@ -33730,7 +33731,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1081" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1081" s="1" t="s">
         <v>1</v>
       </c>
@@ -33769,7 +33770,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1082" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1082" s="1" t="s">
         <v>1</v>
       </c>
@@ -33808,7 +33809,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="1083" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1083" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1083" s="1" t="s">
         <v>1</v>
       </c>
@@ -33849,6 +33850,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I1083">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="한국제지"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:I1083">
       <sortCondition ref="A1:A1083"/>
     </sortState>
@@ -33865,11 +33871,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N60" sqref="A1:N60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
